--- a/biology/Zoologie/Jorunna_rubescens/Jorunna_rubescens.xlsx
+++ b/biology/Zoologie/Jorunna_rubescens/Jorunna_rubescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jorunna rubescens est une espèce de Nudibranche de la famille des Discodorididae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer plus de 20 cm. 
 Le corps est long, de teinte beige rosé à orange pâle, couvert d'une multitude de traits fins longitudinaux avec parfois des points blancs. La partie antérieure, postérieure, le pourtour de la cavité buccale (formé par un repli du manteau), ainsi que la base des fourreaux protégeant les rhinophores et le bouquet branchial, présentent une couleur de brun à noir.
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale Indo/Ouest-Pacifique, des côtes orientales de l'Afrique aux côtes de la Papouasie-Nouvelle-Guinée. 
 </t>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat correspond à la zone récifale, sur les sommets ou les lagons en faible profondeur, avec une prédilection pour les zones sablonneuses.
 </t>
@@ -608,7 +626,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce Jorunna est benthique et diurne.
 </t>
@@ -639,7 +659,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Jorunna rubescens se nourrit principalement d'éponges.
 </t>
